--- a/patient_data/patient_12.xlsx
+++ b/patient_data/patient_12.xlsx
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1759,28 +1759,28 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1836,28 +1836,28 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1913,28 +1913,28 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1958,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1990,28 +1990,28 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
